--- a/DataBaru.xlsx
+++ b/DataBaru.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daffa\Desktop\MODUL\Skripsi\Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN 10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E6172B-F50C-4398-B2F5-BB68D1DF50F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BDFD07-B6B6-4B45-90C9-22760D6EF25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D2D75AD-DB0A-47F1-BDF9-6C47837F9AB8}"/>
+    <workbookView xWindow="9135" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{5D2D75AD-DB0A-47F1-BDF9-6C47837F9AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -550,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C904308D-747B-4590-B2F7-DE6BBC941ECF}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +624,7 @@
       <c r="J2" s="2">
         <v>1.1017999999999999</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>3.0790000000000002</v>
       </c>
     </row>
@@ -670,7 +659,7 @@
       <c r="J3" s="2">
         <v>0.93920000000000003</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>0.6</v>
       </c>
     </row>
@@ -705,7 +694,7 @@
       <c r="J4" s="2">
         <v>1.2122999999999999</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>1.5960000000000001</v>
       </c>
     </row>
@@ -740,7 +729,7 @@
       <c r="J5" s="2">
         <v>1.1153</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>7.23</v>
       </c>
     </row>
@@ -775,7 +764,7 @@
       <c r="J6" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>0.64300000000000002</v>
       </c>
     </row>
@@ -810,7 +799,7 @@
       <c r="J7" s="2">
         <v>0.86260000000000003</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>4.1829999999999998</v>
       </c>
     </row>
@@ -845,7 +834,7 @@
       <c r="J8" s="2">
         <v>1.1128</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>0.35199999999999998</v>
       </c>
     </row>
@@ -880,7 +869,7 @@
       <c r="J9" s="2">
         <v>0.86850000000000005</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>2.1139999999999999</v>
       </c>
     </row>
@@ -915,7 +904,7 @@
       <c r="J10" s="2">
         <v>1.0580000000000001</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>0.53800000000000003</v>
       </c>
     </row>
@@ -950,7 +939,7 @@
       <c r="J11" s="2">
         <v>1.2392000000000001</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>1.0660000000000001</v>
       </c>
     </row>
@@ -985,8 +974,8 @@
       <c r="J12" s="2">
         <v>1.8236000000000001</v>
       </c>
-      <c r="K12" s="2">
-        <v>0.73899999999999999</v>
+      <c r="K12">
+        <v>2.6709999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1020,8 +1009,8 @@
       <c r="J13" s="2">
         <v>1.1355999999999999</v>
       </c>
-      <c r="K13" s="2">
-        <v>1.149</v>
+      <c r="K13">
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1055,8 +1044,8 @@
       <c r="J14" s="2">
         <v>1.6478999999999999</v>
       </c>
-      <c r="K14" s="2">
-        <v>0.05</v>
+      <c r="K14">
+        <v>0.255</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1090,8 +1079,8 @@
       <c r="J15" s="2">
         <v>1.2656000000000001</v>
       </c>
-      <c r="K15" s="2">
-        <v>1.3979999999999999</v>
+      <c r="K15">
+        <v>3.161</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1125,8 +1114,8 @@
       <c r="J16" s="2">
         <v>1.2883</v>
       </c>
-      <c r="K16" s="2">
-        <v>0.35499999999999998</v>
+      <c r="K16">
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1160,8 +1149,8 @@
       <c r="J17" s="2">
         <v>1.2505999999999999</v>
       </c>
-      <c r="K17" s="2">
-        <v>32.552</v>
+      <c r="K17">
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1195,8 +1184,8 @@
       <c r="J18" s="2">
         <v>1.6278999999999999</v>
       </c>
-      <c r="K18" s="2">
-        <v>3.2789999999999999</v>
+      <c r="K18">
+        <v>3.9540000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1230,8 +1219,8 @@
       <c r="J19" s="2">
         <v>1.1798999999999999</v>
       </c>
-      <c r="K19" s="2">
-        <v>0.48099999999999998</v>
+      <c r="K19">
+        <v>2.0920000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1265,8 +1254,8 @@
       <c r="J20" s="2">
         <v>1.1063000000000001</v>
       </c>
-      <c r="K20" s="2">
-        <v>2.6709999999999998</v>
+      <c r="K20">
+        <v>1.002</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1300,8 +1289,8 @@
       <c r="J21" s="2">
         <v>1.0011000000000001</v>
       </c>
-      <c r="K21" s="2">
-        <v>0.20300000000000001</v>
+      <c r="K21">
+        <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1335,8 +1324,8 @@
       <c r="J22" s="2">
         <v>1.034</v>
       </c>
-      <c r="K22" s="2">
-        <v>0.255</v>
+      <c r="K22">
+        <v>1.149</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1370,8 +1359,8 @@
       <c r="J23" s="2">
         <v>0.94059999999999999</v>
       </c>
-      <c r="K23" s="2">
-        <v>3.161</v>
+      <c r="K23">
+        <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1405,8 +1394,8 @@
       <c r="J24" s="2">
         <v>1.2619</v>
       </c>
-      <c r="K24" s="2">
-        <v>0.70099999999999996</v>
+      <c r="K24">
+        <v>1.3979999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1440,8 +1429,8 @@
       <c r="J25" s="2">
         <v>1.1536999999999999</v>
       </c>
-      <c r="K25" s="2">
-        <v>0.54800000000000004</v>
+      <c r="K25">
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1475,8 +1464,8 @@
       <c r="J26" s="2">
         <v>0.94820000000000004</v>
       </c>
-      <c r="K26" s="2">
-        <v>3.9540000000000002</v>
+      <c r="K26">
+        <v>32.552</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1510,8 +1499,8 @@
       <c r="J27" s="2">
         <v>1.1135999999999999</v>
       </c>
-      <c r="K27" s="2">
-        <v>2.0920000000000001</v>
+      <c r="K27">
+        <v>3.2789999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1545,8 +1534,8 @@
       <c r="J28" s="2">
         <v>0.85619999999999996</v>
       </c>
-      <c r="K28" s="2">
-        <v>1.002</v>
+      <c r="K28">
+        <v>0.48099999999999998</v>
       </c>
     </row>
   </sheetData>
